--- a/Andrew-annotations/SYKE_Q1_2015.xlsx
+++ b/Andrew-annotations/SYKE_Q1_2015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893C524C-3BCE-4B2D-BF2F-4656E9A5A095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77011999-126F-4B9A-B2CF-A5BB24C444B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3255" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,10 +651,10 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -680,13 +680,13 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -715,10 +715,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -747,10 +747,10 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -779,10 +779,10 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -811,10 +811,10 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -840,13 +840,13 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -875,10 +875,10 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -907,10 +907,10 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -939,10 +939,10 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -971,10 +971,10 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1000,19 +1000,19 @@
         <v>39</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1035,10 +1035,10 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1067,16 +1067,16 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1099,10 +1099,10 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1128,13 +1128,13 @@
         <v>46</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1160,22 +1160,22 @@
         <v>48</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
@@ -1195,16 +1195,16 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1224,22 +1224,22 @@
         <v>53</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
@@ -1256,13 +1256,13 @@
         <v>55</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1291,10 +1291,10 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1323,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1355,10 +1355,10 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -1384,13 +1384,13 @@
         <v>60</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>2</v>
